--- a/biology/Botanique/Quercus_mongolica/Quercus_mongolica.xlsx
+++ b/biology/Botanique/Quercus_mongolica/Quercus_mongolica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus mongolica, ou chêne de Mongolie, est une espèce de chênes de la famille des Fagaceae et du genre Quercus. Il s'appelle « chêne de Mongolie », parce que le premier individu décrit de cette espèce se trouvait en Mongolie; mais il n'en existe plus aujourd'hui dans cette contrée.
 </t>
@@ -511,7 +523,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Quercus sessiliflora var. mongolica (Fisch. ex Ledeb.) Franch.
 Quercus kirinensis Nakai
@@ -544,7 +558,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Quercus mongolica subsp. crispula
 Quercus mongolica subsp. mongolica</t>
@@ -575,7 +591,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre peut atteindre trente mètres de hauteur dans des conditions favorables; mais au nord de sa zone de répartition, au bord de la mer et en montagne, il ne dépasse que rarement les dix ou douze mètres. Sa croissance est lente et il peut vivre plus de trois cent cinquante ans. Il est résistant au froid.
 Les vieilles branches sont d'un brun foncé, les branches jeunes, marron-vert; les non pubescentes, aux nervures tuberculeuses. Les bourgeons sont ovales et pointus. Les feuilles sont denses comme du parchemin. Elles sont sessiles ou sur des tiges courtes ; elles sont de forme oblongue, ovales ou oblongues-ovales. Elles se rétrécissent vers la base, avec des lobes obtus au nombre de sept à neuf, ou de douze, d'une longueur de 10 à 16 cm et d'une largeur de 4 à 8 cm. Sur la face supérieure, elles ne sont pas pubescentes, d'un vert vif, sur la face inférieure elles ont un fond vert clair et pubescent, mais rarement le long des nervures.
@@ -608,7 +626,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Quercus mongolica se rencontre au nord-est de la Chine, dans la péninsule de Corée, au Japon (Hokkaido, Honshu) et dans l'Extrême-Orient russe (Primorié, kraï de Khabarovsk, oblast de l'Amour et Sakhaline). En Sibérie orientale, on ne le rencontre que dans le bassin du Bydioumkan en Transbaïkalie.
 Au Japon, la sous-espèce Quercus mongolica subsp. crispula, ou simplement Quercus crispula, est nommée mizunara, et est fréquemment utilisée pour la fabrication de fût.
